--- a/docs/100.development/800.nop/800.demo/files/nop-demo.orm.v2.xlsx
+++ b/docs/100.development/800.nop/800.demo/files/nop-demo.orm.v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330" activeTab="3"/>
+    <workbookView windowWidth="27645" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -366,19 +366,19 @@
     <t>Region</t>
   </si>
   <si>
-    <t>区域</t>
-  </si>
-  <si>
-    <t>区域ID</t>
-  </si>
-  <si>
-    <t>区域名称</t>
-  </si>
-  <si>
-    <t>上级区域</t>
-  </si>
-  <si>
-    <t>下级区域</t>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>地区ID</t>
+  </si>
+  <si>
+    <t>地区名称</t>
+  </si>
+  <si>
+    <t>上级地区</t>
+  </si>
+  <si>
+    <t>下级地区</t>
   </si>
   <si>
     <t>org_unit_job_title</t>
@@ -1958,8 +1958,8 @@
   <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2805,8 +2805,8 @@
   <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25:P25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4186,7 +4186,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="D35" sqref="D35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/docs/100.development/800.nop/800.demo/files/nop-demo.orm.v2.xlsx
+++ b/docs/100.development/800.nop/800.demo/files/nop-demo.orm.v2.xlsx
@@ -1959,7 +1959,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2806,7 +2806,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
